--- a/artfynd/A 62054-2021.xlsx
+++ b/artfynd/A 62054-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97255460</v>
+        <v>112044152</v>
       </c>
       <c r="B6" t="n">
-        <v>96334</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1174,52 +1174,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>554812.5203313293</v>
+        <v>554745.9054445035</v>
       </c>
       <c r="R6" t="n">
-        <v>6697458.103415021</v>
+        <v>6697510.461741267</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1243,22 +1232,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-11-21</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-11-21</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1273,19 +1262,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREDRIK  Månsson </t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREDRIK  Månsson </t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97255637</v>
+        <v>97255460</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1320,7 +1309,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1336,10 +1325,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>554812.0055166895</v>
+        <v>554812.5203313293</v>
       </c>
       <c r="R7" t="n">
-        <v>6697492.189299049</v>
+        <v>6697458.103415021</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1371,7 +1360,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1381,7 +1370,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1408,7 +1397,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97255587</v>
+        <v>97255637</v>
       </c>
       <c r="B8" t="n">
         <v>96334</v>
@@ -1443,7 +1432,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1459,10 +1448,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>554799.2001886531</v>
+        <v>554812.0055166895</v>
       </c>
       <c r="R8" t="n">
-        <v>6697488.043045225</v>
+        <v>6697492.189299049</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1494,7 +1483,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1504,7 +1493,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1528,6 +1517,129 @@
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>97255587</v>
+      </c>
+      <c r="B9" t="n">
+        <v>96334</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Hedemora, Dlr</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>554799.2001886531</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6697488.043045225</v>
+      </c>
+      <c r="S9" t="n">
+        <v>25</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2021-11-21</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>13:12</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2021-11-21</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>13:12</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FREDRIK  Månsson </t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FREDRIK  Månsson </t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 62054-2021.xlsx
+++ b/artfynd/A 62054-2021.xlsx
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>554745.9054445035</v>
+        <v>554746</v>
       </c>
       <c r="R6" t="n">
-        <v>6697510.461741267</v>
+        <v>6697510</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1235,19 +1235,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 62054-2021.xlsx
+++ b/artfynd/A 62054-2021.xlsx
@@ -1165,7 +1165,7 @@
         <v>112044152</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>

--- a/artfynd/A 62054-2021.xlsx
+++ b/artfynd/A 62054-2021.xlsx
@@ -1165,7 +1165,7 @@
         <v>112044152</v>
       </c>
       <c r="B6" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
